--- a/experiment/linear/ex9_1_1/compare/C-Estacionario/ex9_1_1_C-Estacionario.xlsx
+++ b/experiment/linear/ex9_1_1/compare/C-Estacionario/ex9_1_1_C-Estacionario.xlsx
@@ -494,13 +494,13 @@
         <v>0.0</v>
       </c>
       <c r="E2">
-        <v>0.000241233</v>
+        <v>0.00021951</v>
       </c>
       <c r="F2">
-        <v>0.016033918</v>
+        <v>0.01400598</v>
       </c>
       <c r="G2">
-        <v>0.0004499973887</v>
+        <v>0.00039225899699999996</v>
       </c>
       <c r="H2">
         <v>1973</v>
@@ -532,13 +532,13 @@
         <v>0.0</v>
       </c>
       <c r="E3">
-        <v>0.002363885</v>
+        <v>0.00196704</v>
       </c>
       <c r="F3">
-        <v>0.007391571</v>
+        <v>0.01721106</v>
       </c>
       <c r="G3">
-        <v>0.003066476192874693</v>
+        <v>0.0024532412727272727</v>
       </c>
       <c r="H3">
         <v>2331</v>
@@ -570,13 +570,13 @@
         <v>0.0</v>
       </c>
       <c r="E4">
-        <v>0.004928141</v>
+        <v>0.00419832</v>
       </c>
       <c r="F4">
-        <v>0.010186458</v>
+        <v>0.16120332</v>
       </c>
       <c r="G4">
-        <v>0.005898166218064516</v>
+        <v>0.005188931775700934</v>
       </c>
       <c r="H4">
         <v>6448</v>

--- a/experiment/linear/ex9_1_1/compare/C-Estacionario/ex9_1_1_C-Estacionario.xlsx
+++ b/experiment/linear/ex9_1_1/compare/C-Estacionario/ex9_1_1_C-Estacionario.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
   <si>
     <t>Optimize_Method</t>
   </si>
@@ -72,19 +72,13 @@
     <t>INFEASIBLE</t>
   </si>
   <si>
-    <t>SOS1</t>
-  </si>
-  <si>
-    <t>FEASIBLE_POINT</t>
-  </si>
-  <si>
-    <t>OPTIMAL</t>
-  </si>
-  <si>
     <t>Product_Mode</t>
   </si>
   <si>
-    <t>LOCALLY_SOLVED</t>
+    <t>INFEASIBLE_POINT</t>
+  </si>
+  <si>
+    <t>LOCALLY_INFEASIBLE</t>
   </si>
 </sst>
 </file>
@@ -436,7 +430,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -494,19 +488,19 @@
         <v>0.0</v>
       </c>
       <c r="E2">
-        <v>0.00021951</v>
+        <v>0.000287505</v>
       </c>
       <c r="F2">
-        <v>0.01400598</v>
+        <v>0.023282776</v>
       </c>
       <c r="G2">
-        <v>0.00039225899699999996</v>
+        <v>0.000635000454568625</v>
       </c>
       <c r="H2">
-        <v>1973</v>
+        <v>1976</v>
       </c>
       <c r="I2">
-        <v>0.086212158203125</v>
+        <v>0.0864410400390625</v>
       </c>
       <c r="J2">
         <v>0.0</v>
@@ -529,69 +523,31 @@
         <v>17</v>
       </c>
       <c r="D3">
-        <v>0.0</v>
+        <v>-27.94109615193122</v>
       </c>
       <c r="E3">
-        <v>0.00196704</v>
+        <v>0.007851779</v>
       </c>
       <c r="F3">
-        <v>0.01721106</v>
+        <v>0.034480998</v>
       </c>
       <c r="G3">
-        <v>0.0024532412727272727</v>
+        <v>0.00990405125148515</v>
       </c>
       <c r="H3">
-        <v>2331</v>
+        <v>6656</v>
       </c>
       <c r="I3">
-        <v>0.0930938720703125</v>
+        <v>0.1886138916015625</v>
       </c>
       <c r="J3">
-        <v>1.06</v>
+        <v>6.25</v>
       </c>
       <c r="K3">
-        <v>-1560.89</v>
+        <v>10.36</v>
       </c>
       <c r="L3">
-        <v>-1532.51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4">
-        <v>0.0</v>
-      </c>
-      <c r="E4">
-        <v>0.00419832</v>
-      </c>
-      <c r="F4">
-        <v>0.16120332</v>
-      </c>
-      <c r="G4">
-        <v>0.005188931775700934</v>
-      </c>
-      <c r="H4">
-        <v>6448</v>
-      </c>
-      <c r="I4">
-        <v>0.1859893798828125</v>
-      </c>
-      <c r="J4">
-        <v>1.07</v>
-      </c>
-      <c r="K4">
-        <v>-1560.84</v>
-      </c>
-      <c r="L4">
-        <v>-1532.47</v>
+        <v>6.6</v>
       </c>
     </row>
   </sheetData>

--- a/experiment/linear/ex9_1_1/compare/C-Estacionario/ex9_1_1_C-Estacionario.xlsx
+++ b/experiment/linear/ex9_1_1/compare/C-Estacionario/ex9_1_1_C-Estacionario.xlsx
@@ -488,13 +488,13 @@
         <v>0.0</v>
       </c>
       <c r="E2">
-        <v>0.000287505</v>
+        <v>0.000246323</v>
       </c>
       <c r="F2">
-        <v>0.023282776</v>
+        <v>0.016120654</v>
       </c>
       <c r="G2">
-        <v>0.000635000454568625</v>
+        <v>0.0004682440455</v>
       </c>
       <c r="H2">
         <v>1976</v>
@@ -526,13 +526,13 @@
         <v>-27.94109615193122</v>
       </c>
       <c r="E3">
-        <v>0.007851779</v>
+        <v>0.009391366</v>
       </c>
       <c r="F3">
-        <v>0.034480998</v>
+        <v>0.015660926</v>
       </c>
       <c r="G3">
-        <v>0.00990405125148515</v>
+        <v>0.01053818123628692</v>
       </c>
       <c r="H3">
         <v>6656</v>
